--- a/tables/crosstab/crosstab_app_time/revealed, VS frequently.xlsx
+++ b/tables/crosstab/crosstab_app_time/revealed, VS frequently.xlsx
@@ -465,28 +465,28 @@
         <v>46</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G2">
-        <v>10.78</v>
+        <v>11</v>
       </c>
       <c r="H2">
-        <v>11.27</v>
+        <v>11.5</v>
       </c>
       <c r="I2">
-        <v>17.65</v>
+        <v>17.5</v>
       </c>
       <c r="J2">
-        <v>3.43</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>43.14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -500,28 +500,28 @@
         <v>32</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3">
-        <v>5.64</v>
+        <v>5.75</v>
       </c>
       <c r="H3">
-        <v>7.84</v>
+        <v>8</v>
       </c>
       <c r="I3">
-        <v>8.82</v>
+        <v>8.75</v>
       </c>
       <c r="J3">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="K3">
-        <v>23.53</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -529,34 +529,34 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>36</v>
       </c>
       <c r="D4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G4">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="H4">
-        <v>8.82</v>
+        <v>9</v>
       </c>
       <c r="I4">
-        <v>14.22</v>
+        <v>14.25</v>
       </c>
       <c r="J4">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="K4">
-        <v>33.33</v>
+        <v>33.25</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5">
         <v>114</v>
       </c>
       <c r="D5">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F5">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G5">
-        <v>24.02</v>
+        <v>24.25</v>
       </c>
       <c r="H5">
-        <v>27.94</v>
+        <v>28.5</v>
       </c>
       <c r="I5">
-        <v>40.69</v>
+        <v>40.5</v>
       </c>
       <c r="J5">
-        <v>7.35</v>
+        <v>6.75</v>
       </c>
       <c r="K5">
         <v>100</v>
